--- a/database/industries/zeraat/zegoldasht/official/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/official/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85104427-50FC-4079-A538-48380200E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D07303-EE09-418D-97EF-4881B76CDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -554,13 +554,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -570,7 +570,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -604,7 +604,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -638,7 +638,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
@@ -758,7 +758,7 @@
         <v>66068</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -868,7 +868,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -912,7 +912,7 @@
         <v>75845</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
@@ -934,7 +934,7 @@
         <v>184457</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -944,7 +944,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -954,7 +954,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -964,7 +964,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -996,7 +996,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1094,7 +1094,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1114,7 +1114,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>

--- a/database/industries/zeraat/zegoldasht/official/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/official/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D07303-EE09-418D-97EF-4881B76CDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF909D4-DDE1-4596-B025-07E868E51A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>بهداشت دام</t>
@@ -554,13 +554,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -570,7 +570,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -604,7 +604,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -638,7 +638,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -682,8 +682,8 @@
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
+      <c r="G10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
@@ -746,32 +746,32 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>20639</v>
       </c>
       <c r="G13" s="11">
-        <v>20639</v>
+        <v>28917</v>
       </c>
       <c r="H13" s="11">
-        <v>28917</v>
+        <v>66068</v>
       </c>
       <c r="I13" s="11">
-        <v>66068</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86979</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F14" s="9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G14" s="9">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
@@ -802,20 +802,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F16" s="9">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="G16" s="9">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -824,51 +824,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1397</v>
+        <v>1227</v>
       </c>
       <c r="F17" s="11">
-        <v>1227</v>
+        <v>1123</v>
       </c>
       <c r="G17" s="11">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="H17" s="11">
-        <v>1092</v>
+        <v>1693</v>
       </c>
       <c r="I17" s="11">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37030</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>12002</v>
+        <v>16723</v>
       </c>
       <c r="F18" s="9">
-        <v>16723</v>
+        <v>21546</v>
       </c>
       <c r="G18" s="9">
-        <v>21546</v>
+        <v>28415</v>
       </c>
       <c r="H18" s="9">
-        <v>28415</v>
+        <v>40851</v>
       </c>
       <c r="I18" s="9">
-        <v>40851</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>107678</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -890,51 +890,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>24790</v>
+        <v>29982</v>
       </c>
       <c r="F20" s="9">
-        <v>29982</v>
+        <v>18774</v>
       </c>
       <c r="G20" s="9">
-        <v>18774</v>
+        <v>34933</v>
       </c>
       <c r="H20" s="9">
-        <v>34933</v>
+        <v>75845</v>
       </c>
       <c r="I20" s="9">
-        <v>75845</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110019</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>38290</v>
+        <v>48182</v>
       </c>
       <c r="F21" s="13">
-        <v>48182</v>
+        <v>62464</v>
       </c>
       <c r="G21" s="13">
-        <v>62464</v>
+        <v>93357</v>
       </c>
       <c r="H21" s="13">
-        <v>93357</v>
+        <v>184457</v>
       </c>
       <c r="I21" s="13">
-        <v>184457</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>341706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -944,7 +944,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -954,7 +954,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -964,7 +964,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -996,7 +996,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1008,17 +1008,17 @@
       <c r="F27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>10</v>
+      <c r="G27" s="9">
+        <v>43</v>
       </c>
       <c r="H27" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -1030,17 +1030,17 @@
       <c r="F28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>10</v>
+      <c r="G28" s="11">
+        <v>143</v>
       </c>
       <c r="H28" s="11">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="I28" s="11">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="9">
-        <v>27</v>
-      </c>
-      <c r="G29" s="9">
         <v>30</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>10</v>
@@ -1062,20 +1062,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F30" s="11">
-        <v>122</v>
-      </c>
-      <c r="G30" s="11">
         <v>130</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1094,7 +1094,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1114,7 +1114,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
